--- a/Output Data/Merge Sort on Randomly-Ordered Array Results.xlsx
+++ b/Output Data/Merge Sort on Randomly-Ordered Array Results.xlsx
@@ -398,10 +398,10 @@
         <v>1000.0</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>0.0</v>
+        <v>8707.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>191280.0</v>
+        <v>184840.0</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         <v>2000.0</v>
       </c>
       <c r="B3" t="n" s="3">
-        <v>0.0</v>
+        <v>19413.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>389643.0</v>
+        <v>377822.0</v>
       </c>
     </row>
     <row r="4">
@@ -420,10 +420,10 @@
         <v>3000.0</v>
       </c>
       <c r="B4" t="n" s="4">
-        <v>0.0</v>
+        <v>30922.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>595515.0</v>
+        <v>593890.0</v>
       </c>
     </row>
     <row r="5">
@@ -431,10 +431,10 @@
         <v>4000.0</v>
       </c>
       <c r="B5" t="n" s="5">
-        <v>0.0</v>
+        <v>42819.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>717592.0</v>
+        <v>708475.0</v>
       </c>
     </row>
     <row r="6">
@@ -442,10 +442,10 @@
         <v>5000.0</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>0.0</v>
+        <v>55233.0</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>911105.0</v>
+        <v>896078.0</v>
       </c>
     </row>
     <row r="7">
@@ -453,10 +453,10 @@
         <v>6000.0</v>
       </c>
       <c r="B7" t="n" s="7">
-        <v>0.0</v>
+        <v>67832.0</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>1126873.0</v>
+        <v>1076231.0</v>
       </c>
     </row>
     <row r="8">
@@ -464,10 +464,10 @@
         <v>7000.0</v>
       </c>
       <c r="B8" t="n" s="8">
-        <v>0.0</v>
+        <v>80678.0</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>1312945.0</v>
+        <v>1268119.0</v>
       </c>
     </row>
     <row r="9">
@@ -475,10 +475,10 @@
         <v>8000.0</v>
       </c>
       <c r="B9" t="n" s="9">
-        <v>0.0</v>
+        <v>93647.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>1491824.0</v>
+        <v>1467730.0</v>
       </c>
     </row>
     <row r="10">
@@ -486,10 +486,10 @@
         <v>9000.0</v>
       </c>
       <c r="B10" t="n" s="10">
-        <v>0.0</v>
+        <v>106969.0</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>1686098.0</v>
+        <v>1646754.0</v>
       </c>
     </row>
     <row r="11">
@@ -497,10 +497,10 @@
         <v>10000.0</v>
       </c>
       <c r="B11" t="n" s="11">
-        <v>0.0</v>
+        <v>120450.0</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>1884486.0</v>
+        <v>1844116.0</v>
       </c>
     </row>
     <row r="12">
@@ -508,10 +508,10 @@
         <v>11000.0</v>
       </c>
       <c r="B12" t="n" s="12">
-        <v>0.0</v>
+        <v>134021.0</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>2081822.0</v>
+        <v>2051031.0</v>
       </c>
     </row>
     <row r="13">
@@ -519,10 +519,10 @@
         <v>12000.0</v>
       </c>
       <c r="B13" t="n" s="13">
-        <v>0.0</v>
+        <v>147684.0</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>2268416.0</v>
+        <v>2233631.0</v>
       </c>
     </row>
     <row r="14">
@@ -530,10 +530,10 @@
         <v>13000.0</v>
       </c>
       <c r="B14" t="n" s="14">
-        <v>0.0</v>
+        <v>161472.0</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>2495209.0</v>
+        <v>2436466.0</v>
       </c>
     </row>
     <row r="15">
@@ -541,10 +541,10 @@
         <v>14000.0</v>
       </c>
       <c r="B15" t="n" s="15">
-        <v>0.0</v>
+        <v>175369.0</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>2685694.0</v>
+        <v>2671051.0</v>
       </c>
     </row>
     <row r="16">
@@ -552,10 +552,10 @@
         <v>15000.0</v>
       </c>
       <c r="B16" t="n" s="16">
-        <v>0.0</v>
+        <v>189265.0</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>2911905.0</v>
+        <v>2858577.0</v>
       </c>
     </row>
     <row r="17">
@@ -563,10 +563,10 @@
         <v>16000.0</v>
       </c>
       <c r="B17" t="n" s="17">
-        <v>0.0</v>
+        <v>203275.0</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>3101518.0</v>
+        <v>3046804.0</v>
       </c>
     </row>
     <row r="18">
@@ -574,10 +574,10 @@
         <v>17000.0</v>
       </c>
       <c r="B18" t="n" s="18">
-        <v>0.0</v>
+        <v>217519.0</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>3317765.0</v>
+        <v>3264744.0</v>
       </c>
     </row>
     <row r="19">
@@ -585,10 +585,10 @@
         <v>18000.0</v>
       </c>
       <c r="B19" t="n" s="19">
-        <v>0.0</v>
+        <v>231958.0</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>3520566.0</v>
+        <v>3460276.0</v>
       </c>
     </row>
     <row r="20">
@@ -596,10 +596,10 @@
         <v>19000.0</v>
       </c>
       <c r="B20" t="n" s="20">
-        <v>0.0</v>
+        <v>246402.0</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>3707399.0</v>
+        <v>3644073.0</v>
       </c>
     </row>
     <row r="21">
@@ -607,10 +607,10 @@
         <v>20000.0</v>
       </c>
       <c r="B21" t="n" s="21">
-        <v>0.0</v>
+        <v>260908.0</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>3919113.0</v>
+        <v>3857788.0</v>
       </c>
     </row>
     <row r="22">
@@ -618,10 +618,10 @@
         <v>21000.0</v>
       </c>
       <c r="B22" t="n" s="22">
-        <v>0.0</v>
+        <v>275456.0</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>4126927.0</v>
+        <v>4067654.0</v>
       </c>
     </row>
     <row r="23">
@@ -629,10 +629,10 @@
         <v>22000.0</v>
       </c>
       <c r="B23" t="n" s="23">
-        <v>0.0</v>
+        <v>290040.0</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>4342045.0</v>
+        <v>4277734.0</v>
       </c>
     </row>
     <row r="24">
@@ -640,10 +640,10 @@
         <v>23000.0</v>
       </c>
       <c r="B24" t="n" s="24">
-        <v>0.0</v>
+        <v>304664.0</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>4564074.0</v>
+        <v>4423179.0</v>
       </c>
     </row>
     <row r="25">
@@ -651,10 +651,10 @@
         <v>24000.0</v>
       </c>
       <c r="B25" t="n" s="25">
-        <v>0.0</v>
+        <v>319333.0</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>4766080.0</v>
+        <v>4702565.0</v>
       </c>
     </row>
     <row r="26">
@@ -662,10 +662,10 @@
         <v>25000.0</v>
       </c>
       <c r="B26" t="n" s="26">
-        <v>0.0</v>
+        <v>334127.0</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>4985782.0</v>
+        <v>4913304.0</v>
       </c>
     </row>
     <row r="27">
@@ -673,10 +673,10 @@
         <v>26000.0</v>
       </c>
       <c r="B27" t="n" s="27">
-        <v>0.0</v>
+        <v>348969.0</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>5205972.0</v>
+        <v>5097964.0</v>
       </c>
     </row>
     <row r="28">
@@ -684,10 +684,10 @@
         <v>27000.0</v>
       </c>
       <c r="B28" t="n" s="28">
-        <v>0.0</v>
+        <v>363833.0</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>5388760.0</v>
+        <v>5327853.0</v>
       </c>
     </row>
     <row r="29">
@@ -695,10 +695,10 @@
         <v>28000.0</v>
       </c>
       <c r="B29" t="n" s="29">
-        <v>0.0</v>
+        <v>378734.0</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>5607170.0</v>
+        <v>5535992.0</v>
       </c>
     </row>
     <row r="30">
@@ -706,10 +706,10 @@
         <v>29000.0</v>
       </c>
       <c r="B30" t="n" s="30">
-        <v>0.0</v>
+        <v>393630.0</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>5827463.0</v>
+        <v>5716145.0</v>
       </c>
     </row>
     <row r="31">
@@ -717,10 +717,10 @@
         <v>30000.0</v>
       </c>
       <c r="B31" t="n" s="31">
-        <v>0.0</v>
+        <v>408611.0</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>6028280.0</v>
+        <v>5940235.0</v>
       </c>
     </row>
     <row r="32">
@@ -728,10 +728,10 @@
         <v>31000.0</v>
       </c>
       <c r="B32" t="n" s="32">
-        <v>0.0</v>
+        <v>423585.0</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>6300858.0</v>
+        <v>6185374.0</v>
       </c>
     </row>
     <row r="33">
@@ -739,10 +739,10 @@
         <v>32000.0</v>
       </c>
       <c r="B33" t="n" s="33">
-        <v>0.0</v>
+        <v>438549.0</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>6439930.0</v>
+        <v>6349080.0</v>
       </c>
     </row>
     <row r="34">
@@ -750,10 +750,10 @@
         <v>33000.0</v>
       </c>
       <c r="B34" t="n" s="34">
-        <v>0.0</v>
+        <v>453671.0</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>6685677.0</v>
+        <v>6581252.0</v>
       </c>
     </row>
     <row r="35">
@@ -761,10 +761,10 @@
         <v>34000.0</v>
       </c>
       <c r="B35" t="n" s="35">
-        <v>0.0</v>
+        <v>469056.0</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>6911982.0</v>
+        <v>6786757.0</v>
       </c>
     </row>
     <row r="36">
@@ -772,10 +772,10 @@
         <v>35000.0</v>
       </c>
       <c r="B36" t="n" s="36">
-        <v>0.0</v>
+        <v>484477.0</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>7104982.0</v>
+        <v>7000840.0</v>
       </c>
     </row>
     <row r="37">
@@ -783,10 +783,10 @@
         <v>36000.0</v>
       </c>
       <c r="B37" t="n" s="37">
-        <v>0.0</v>
+        <v>499912.0</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>7346802.0</v>
+        <v>7179308.0</v>
       </c>
     </row>
     <row r="38">
@@ -794,10 +794,10 @@
         <v>37000.0</v>
       </c>
       <c r="B38" t="n" s="38">
-        <v>0.0</v>
+        <v>515349.0</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>7493821.0</v>
+        <v>7359726.0</v>
       </c>
     </row>
     <row r="39">
@@ -805,10 +805,10 @@
         <v>38000.0</v>
       </c>
       <c r="B39" t="n" s="39">
-        <v>0.0</v>
+        <v>530817.0</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>7781914.0</v>
+        <v>7627950.0</v>
       </c>
     </row>
     <row r="40">
@@ -816,10 +816,10 @@
         <v>39000.0</v>
       </c>
       <c r="B40" t="n" s="40">
-        <v>0.0</v>
+        <v>546303.0</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>8019706.0</v>
+        <v>7836747.0</v>
       </c>
     </row>
     <row r="41">
@@ -827,10 +827,10 @@
         <v>40000.0</v>
       </c>
       <c r="B41" t="n" s="41">
-        <v>0.0</v>
+        <v>561767.0</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>8130707.0</v>
+        <v>8028772.0</v>
       </c>
     </row>
     <row r="42">
@@ -838,10 +838,10 @@
         <v>41000.0</v>
       </c>
       <c r="B42" t="n" s="42">
-        <v>0.0</v>
+        <v>577303.0</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>8353557.0</v>
+        <v>8225347.0</v>
       </c>
     </row>
     <row r="43">
@@ -849,10 +849,10 @@
         <v>42000.0</v>
       </c>
       <c r="B43" t="n" s="43">
-        <v>0.0</v>
+        <v>592915.0</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>8558814.0</v>
+        <v>8428901.0</v>
       </c>
     </row>
     <row r="44">
@@ -860,10 +860,10 @@
         <v>43000.0</v>
       </c>
       <c r="B44" t="n" s="44">
-        <v>0.0</v>
+        <v>608509.0</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>8771862.0</v>
+        <v>8662058.0</v>
       </c>
     </row>
     <row r="45">
@@ -871,10 +871,10 @@
         <v>44000.0</v>
       </c>
       <c r="B45" t="n" s="45">
-        <v>0.0</v>
+        <v>624110.0</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>9076325.0</v>
+        <v>8779038.0</v>
       </c>
     </row>
     <row r="46">
@@ -882,10 +882,10 @@
         <v>45000.0</v>
       </c>
       <c r="B46" t="n" s="46">
-        <v>0.0</v>
+        <v>639717.0</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>9210907.0</v>
+        <v>8888790.0</v>
       </c>
     </row>
     <row r="47">
@@ -893,10 +893,10 @@
         <v>46000.0</v>
       </c>
       <c r="B47" t="n" s="47">
-        <v>0.0</v>
+        <v>655374.0</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>9487812.0</v>
+        <v>9120570.0</v>
       </c>
     </row>
     <row r="48">
@@ -904,10 +904,10 @@
         <v>47000.0</v>
       </c>
       <c r="B48" t="n" s="48">
-        <v>0.0</v>
+        <v>671028.0</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>9738939.0</v>
+        <v>9350681.0</v>
       </c>
     </row>
     <row r="49">
@@ -915,10 +915,10 @@
         <v>48000.0</v>
       </c>
       <c r="B49" t="n" s="49">
-        <v>0.0</v>
+        <v>686669.0</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>9973301.0</v>
+        <v>9562216.0</v>
       </c>
     </row>
     <row r="50">
@@ -926,10 +926,10 @@
         <v>49000.0</v>
       </c>
       <c r="B50" t="n" s="50">
-        <v>0.0</v>
+        <v>702366.0</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>1.0187547E7</v>
+        <v>9733867.0</v>
       </c>
     </row>
     <row r="51">
@@ -937,10 +937,10 @@
         <v>50000.0</v>
       </c>
       <c r="B51" t="n" s="51">
-        <v>0.0</v>
+        <v>718183.0</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>1.0375722E7</v>
+        <v>9987405.0</v>
       </c>
     </row>
     <row r="52">
@@ -948,10 +948,10 @@
         <v>51000.0</v>
       </c>
       <c r="B52" t="n" s="52">
-        <v>0.0</v>
+        <v>734036.0</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>1.0690484E7</v>
+        <v>1.020774E7</v>
       </c>
     </row>
     <row r="53">
@@ -959,10 +959,10 @@
         <v>52000.0</v>
       </c>
       <c r="B53" t="n" s="53">
-        <v>0.0</v>
+        <v>749901.0</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>1.0940173E7</v>
+        <v>1.0421139E7</v>
       </c>
     </row>
     <row r="54">
@@ -970,10 +970,10 @@
         <v>53000.0</v>
       </c>
       <c r="B54" t="n" s="54">
-        <v>0.0</v>
+        <v>765793.0</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>1.1132796E7</v>
+        <v>1.0622564E7</v>
       </c>
     </row>
     <row r="55">
@@ -981,10 +981,10 @@
         <v>54000.0</v>
       </c>
       <c r="B55" t="n" s="55">
-        <v>0.0</v>
+        <v>781642.0</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>1.137537E7</v>
+        <v>1.08209E7</v>
       </c>
     </row>
     <row r="56">
@@ -992,10 +992,10 @@
         <v>55000.0</v>
       </c>
       <c r="B56" t="n" s="56">
-        <v>0.0</v>
+        <v>797563.0</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>1.1516812E7</v>
+        <v>1.1092024E7</v>
       </c>
     </row>
     <row r="57">
@@ -1003,10 +1003,10 @@
         <v>56000.0</v>
       </c>
       <c r="B57" t="n" s="57">
-        <v>0.0</v>
+        <v>813485.0</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>1.1776021E7</v>
+        <v>1.1286119E7</v>
       </c>
     </row>
     <row r="58">
@@ -1014,10 +1014,10 @@
         <v>57000.0</v>
       </c>
       <c r="B58" t="n" s="58">
-        <v>0.0</v>
+        <v>829336.0</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>1.1962152E7</v>
+        <v>1.1459497E7</v>
       </c>
     </row>
     <row r="59">
@@ -1025,10 +1025,10 @@
         <v>58000.0</v>
       </c>
       <c r="B59" t="n" s="59">
-        <v>0.0</v>
+        <v>845263.0</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>1.2213022E7</v>
+        <v>1.1728166E7</v>
       </c>
     </row>
     <row r="60">
@@ -1036,10 +1036,10 @@
         <v>59000.0</v>
       </c>
       <c r="B60" t="n" s="60">
-        <v>0.0</v>
+        <v>861219.0</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>1.2497873E7</v>
+        <v>1.191984E7</v>
       </c>
     </row>
     <row r="61">
@@ -1047,10 +1047,10 @@
         <v>60000.0</v>
       </c>
       <c r="B61" t="n" s="61">
-        <v>0.0</v>
+        <v>877198.0</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>1.2652418E7</v>
+        <v>1.2158043E7</v>
       </c>
     </row>
     <row r="62">
@@ -1058,10 +1058,10 @@
         <v>61000.0</v>
       </c>
       <c r="B62" t="n" s="62">
-        <v>0.0</v>
+        <v>893180.0</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>1.2926886E7</v>
+        <v>1.2317249E7</v>
       </c>
     </row>
     <row r="63">
@@ -1069,10 +1069,10 @@
         <v>62000.0</v>
       </c>
       <c r="B63" t="n" s="63">
-        <v>0.0</v>
+        <v>909116.0</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>1.3128567E7</v>
+        <v>1.2525388E7</v>
       </c>
     </row>
     <row r="64">
@@ -1080,10 +1080,10 @@
         <v>63000.0</v>
       </c>
       <c r="B64" t="n" s="64">
-        <v>0.0</v>
+        <v>925113.0</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>1.335512E7</v>
+        <v>1.2794331E7</v>
       </c>
     </row>
     <row r="65">
@@ -1091,10 +1091,10 @@
         <v>64000.0</v>
       </c>
       <c r="B65" t="n" s="65">
-        <v>0.0</v>
+        <v>941152.0</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>1.365186E7</v>
+        <v>1.2984585E7</v>
       </c>
     </row>
     <row r="66">
@@ -1102,10 +1102,10 @@
         <v>65000.0</v>
       </c>
       <c r="B66" t="n" s="66">
-        <v>0.0</v>
+        <v>957107.0</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>1.3811665E7</v>
+        <v>1.3166542E7</v>
       </c>
     </row>
     <row r="67">
@@ -1113,10 +1113,10 @@
         <v>66000.0</v>
       </c>
       <c r="B67" t="n" s="67">
-        <v>0.0</v>
+        <v>973317.0</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>1.4126974E7</v>
+        <v>1.3412152E7</v>
       </c>
     </row>
     <row r="68">
@@ -1124,10 +1124,10 @@
         <v>67000.0</v>
       </c>
       <c r="B68" t="n" s="68">
-        <v>0.0</v>
+        <v>989741.0</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>1.4266911E7</v>
+        <v>1.3649089E7</v>
       </c>
     </row>
     <row r="69">
@@ -1135,10 +1135,10 @@
         <v>68000.0</v>
       </c>
       <c r="B69" t="n" s="69">
-        <v>0.0</v>
+        <v>1006119.0</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>1.4543397E7</v>
+        <v>1.3870665E7</v>
       </c>
     </row>
     <row r="70">
@@ -1146,10 +1146,10 @@
         <v>69000.0</v>
       </c>
       <c r="B70" t="n" s="70">
-        <v>0.0</v>
+        <v>1022533.0</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>1.4672009E7</v>
+        <v>1.4094994E7</v>
       </c>
     </row>
     <row r="71">
@@ -1157,10 +1157,10 @@
         <v>70000.0</v>
       </c>
       <c r="B71" t="n" s="71">
-        <v>0.0</v>
+        <v>1038931.0</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>1.499948E7</v>
+        <v>1.4284949E7</v>
       </c>
     </row>
     <row r="72">
@@ -1168,10 +1168,10 @@
         <v>71000.0</v>
       </c>
       <c r="B72" t="n" s="72">
-        <v>0.0</v>
+        <v>1055397.0</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>1.5200827E7</v>
+        <v>1.4476478E7</v>
       </c>
     </row>
     <row r="73">
@@ -1179,10 +1179,10 @@
         <v>72000.0</v>
       </c>
       <c r="B73" t="n" s="73">
-        <v>0.0</v>
+        <v>1071807.0</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>1.5521285E7</v>
+        <v>1.4773405E7</v>
       </c>
     </row>
     <row r="74">
@@ -1190,10 +1190,10 @@
         <v>73000.0</v>
       </c>
       <c r="B74" t="n" s="74">
-        <v>0.0</v>
+        <v>1088228.0</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>1.5675377E7</v>
+        <v>1.5017852E7</v>
       </c>
     </row>
     <row r="75">
@@ -1201,10 +1201,10 @@
         <v>74000.0</v>
       </c>
       <c r="B75" t="n" s="75">
-        <v>0.0</v>
+        <v>1104713.0</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>1.6004729E7</v>
+        <v>1.5138125E7</v>
       </c>
     </row>
     <row r="76">
@@ -1212,10 +1212,10 @@
         <v>75000.0</v>
       </c>
       <c r="B76" t="n" s="76">
-        <v>0.0</v>
+        <v>1121159.0</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>1.6128868E7</v>
+        <v>1.5429237E7</v>
       </c>
     </row>
     <row r="77">
@@ -1223,10 +1223,10 @@
         <v>76000.0</v>
       </c>
       <c r="B77" t="n" s="77">
-        <v>0.0</v>
+        <v>1137659.0</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>1.6342319E7</v>
+        <v>1.5602436E7</v>
       </c>
     </row>
     <row r="78">
@@ -1234,10 +1234,10 @@
         <v>77000.0</v>
       </c>
       <c r="B78" t="n" s="78">
-        <v>0.0</v>
+        <v>1154067.0</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>1.6613202E7</v>
+        <v>1.5817315E7</v>
       </c>
     </row>
     <row r="79">
@@ -1245,10 +1245,10 @@
         <v>78000.0</v>
       </c>
       <c r="B79" t="n" s="79">
-        <v>0.0</v>
+        <v>1170604.0</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>1.6722168E7</v>
+        <v>1.5936065E7</v>
       </c>
     </row>
     <row r="80">
@@ -1256,10 +1256,10 @@
         <v>79000.0</v>
       </c>
       <c r="B80" t="n" s="80">
-        <v>0.0</v>
+        <v>1187101.0</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>1.7007045E7</v>
+        <v>1.6204153E7</v>
       </c>
     </row>
     <row r="81">
@@ -1267,10 +1267,10 @@
         <v>80000.0</v>
       </c>
       <c r="B81" t="n" s="81">
-        <v>0.0</v>
+        <v>1203605.0</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>1.7486076E7</v>
+        <v>1.6481357E7</v>
       </c>
     </row>
     <row r="82">
@@ -1278,10 +1278,10 @@
         <v>81000.0</v>
       </c>
       <c r="B82" t="n" s="82">
-        <v>0.0</v>
+        <v>1220073.0</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>1.7341076E7</v>
+        <v>1.6656207E7</v>
       </c>
     </row>
     <row r="83">
@@ -1289,10 +1289,10 @@
         <v>82000.0</v>
       </c>
       <c r="B83" t="n" s="83">
-        <v>0.0</v>
+        <v>1236620.0</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>1.7509948E7</v>
+        <v>1.6834513E7</v>
       </c>
     </row>
     <row r="84">
@@ -1300,10 +1300,10 @@
         <v>83000.0</v>
       </c>
       <c r="B84" t="n" s="84">
-        <v>0.0</v>
+        <v>1253193.0</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>1.7851933E7</v>
+        <v>1.7111025E7</v>
       </c>
     </row>
     <row r="85">
@@ -1311,10 +1311,10 @@
         <v>84000.0</v>
       </c>
       <c r="B85" t="n" s="85">
-        <v>0.0</v>
+        <v>1269780.0</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>1.8258503E7</v>
+        <v>1.7383593E7</v>
       </c>
     </row>
     <row r="86">
@@ -1322,10 +1322,10 @@
         <v>85000.0</v>
       </c>
       <c r="B86" t="n" s="86">
-        <v>0.0</v>
+        <v>1286456.0</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>1.8795438E7</v>
+        <v>1.7619085E7</v>
       </c>
     </row>
     <row r="87">
@@ -1333,10 +1333,10 @@
         <v>86000.0</v>
       </c>
       <c r="B87" t="n" s="87">
-        <v>0.0</v>
+        <v>1303004.0</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>1.8672018E7</v>
+        <v>1.7809305E7</v>
       </c>
     </row>
     <row r="88">
@@ -1344,10 +1344,10 @@
         <v>87000.0</v>
       </c>
       <c r="B88" t="n" s="88">
-        <v>0.0</v>
+        <v>1319620.0</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>1.8972025E7</v>
+        <v>1.8029358E7</v>
       </c>
     </row>
     <row r="89">
@@ -1355,10 +1355,10 @@
         <v>88000.0</v>
       </c>
       <c r="B89" t="n" s="89">
-        <v>0.0</v>
+        <v>1336218.0</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>1.8786996E7</v>
+        <v>1.8342665E7</v>
       </c>
     </row>
     <row r="90">
@@ -1366,10 +1366,10 @@
         <v>89000.0</v>
       </c>
       <c r="B90" t="n" s="90">
-        <v>0.0</v>
+        <v>1352864.0</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>1.9064201E7</v>
+        <v>1.8497433E7</v>
       </c>
     </row>
     <row r="91">
@@ -1377,10 +1377,10 @@
         <v>90000.0</v>
       </c>
       <c r="B91" t="n" s="91">
-        <v>0.0</v>
+        <v>1369474.0</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>1.9236117E7</v>
+        <v>1.8703168E7</v>
       </c>
     </row>
     <row r="92">
@@ -1388,10 +1388,10 @@
         <v>91000.0</v>
       </c>
       <c r="B92" t="n" s="92">
-        <v>0.0</v>
+        <v>1386114.0</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>1.9551777E7</v>
+        <v>1.895905E7</v>
       </c>
     </row>
     <row r="93">
@@ -1399,10 +1399,10 @@
         <v>92000.0</v>
       </c>
       <c r="B93" t="n" s="93">
-        <v>0.0</v>
+        <v>1402774.0</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>1.9816246E7</v>
+        <v>1.9169429E7</v>
       </c>
     </row>
     <row r="94">
@@ -1410,10 +1410,10 @@
         <v>93000.0</v>
       </c>
       <c r="B94" t="n" s="94">
-        <v>0.0</v>
+        <v>1419337.0</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>1.9999623E7</v>
+        <v>1.9476612E7</v>
       </c>
     </row>
     <row r="95">
@@ -1421,10 +1421,10 @@
         <v>94000.0</v>
       </c>
       <c r="B95" t="n" s="95">
-        <v>0.0</v>
+        <v>1436097.0</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>2.0030217E7</v>
+        <v>1.9605011E7</v>
       </c>
     </row>
     <row r="96">
@@ -1432,10 +1432,10 @@
         <v>95000.0</v>
       </c>
       <c r="B96" t="n" s="96">
-        <v>0.0</v>
+        <v>1452715.0</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>2.0544795E7</v>
+        <v>1.9624777E7</v>
       </c>
     </row>
     <row r="97">
@@ -1443,10 +1443,10 @@
         <v>96000.0</v>
       </c>
       <c r="B97" t="n" s="97">
-        <v>0.0</v>
+        <v>1469407.0</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>2.0356688E7</v>
+        <v>1.9837115E7</v>
       </c>
     </row>
     <row r="98">
@@ -1454,10 +1454,10 @@
         <v>97000.0</v>
       </c>
       <c r="B98" t="n" s="98">
-        <v>0.0</v>
+        <v>1486085.0</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>2.0580324E7</v>
+        <v>2.0394364E7</v>
       </c>
     </row>
     <row r="99">
@@ -1465,10 +1465,10 @@
         <v>98000.0</v>
       </c>
       <c r="B99" t="n" s="99">
-        <v>0.0</v>
+        <v>1502727.0</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>2.0795348E7</v>
+        <v>2.0586474E7</v>
       </c>
     </row>
     <row r="100">
@@ -1476,10 +1476,10 @@
         <v>99000.0</v>
       </c>
       <c r="B100" t="n" s="100">
-        <v>0.0</v>
+        <v>1519480.0</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>2.093821E7</v>
+        <v>2.0806416E7</v>
       </c>
     </row>
     <row r="101">
@@ -1487,10 +1487,10 @@
         <v>100000.0</v>
       </c>
       <c r="B101" t="n" s="101">
-        <v>0.0</v>
+        <v>1536378.0</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>2.1322413E7</v>
+        <v>2.1062734E7</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Merge Sort on Randomly-Ordered Array Results.xlsx
+++ b/Output Data/Merge Sort on Randomly-Ordered Array Results.xlsx
@@ -398,10 +398,10 @@
         <v>1000.0</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>8707.0</v>
+        <v>8710.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>184840.0</v>
+        <v>200423.0</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>19413.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>377822.0</v>
+        <v>399530.0</v>
       </c>
     </row>
     <row r="4">
@@ -420,10 +420,10 @@
         <v>3000.0</v>
       </c>
       <c r="B4" t="n" s="4">
-        <v>30922.0</v>
+        <v>30923.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>593890.0</v>
+        <v>523746.0</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>42819.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>708475.0</v>
+        <v>709022.0</v>
       </c>
     </row>
     <row r="6">
@@ -442,10 +442,10 @@
         <v>5000.0</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>55233.0</v>
+        <v>55220.0</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>896078.0</v>
+        <v>894769.0</v>
       </c>
     </row>
     <row r="7">
@@ -453,10 +453,10 @@
         <v>6000.0</v>
       </c>
       <c r="B7" t="n" s="7">
-        <v>67832.0</v>
+        <v>67833.0</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>1076231.0</v>
+        <v>1071595.0</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>80678.0</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>1268119.0</v>
+        <v>1254571.0</v>
       </c>
     </row>
     <row r="9">
@@ -475,10 +475,10 @@
         <v>8000.0</v>
       </c>
       <c r="B9" t="n" s="9">
-        <v>93647.0</v>
+        <v>93644.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>1467730.0</v>
+        <v>1450547.0</v>
       </c>
     </row>
     <row r="10">
@@ -486,10 +486,10 @@
         <v>9000.0</v>
       </c>
       <c r="B10" t="n" s="10">
-        <v>106969.0</v>
+        <v>106995.0</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>1646754.0</v>
+        <v>1631701.0</v>
       </c>
     </row>
     <row r="11">
@@ -497,10 +497,10 @@
         <v>10000.0</v>
       </c>
       <c r="B11" t="n" s="11">
-        <v>120450.0</v>
+        <v>120463.0</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>1844116.0</v>
+        <v>1831654.0</v>
       </c>
     </row>
     <row r="12">
@@ -508,10 +508,10 @@
         <v>11000.0</v>
       </c>
       <c r="B12" t="n" s="12">
-        <v>134021.0</v>
+        <v>134049.0</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>2051031.0</v>
+        <v>2031077.0</v>
       </c>
     </row>
     <row r="13">
@@ -519,10 +519,10 @@
         <v>12000.0</v>
       </c>
       <c r="B13" t="n" s="13">
-        <v>147684.0</v>
+        <v>147682.0</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>2233631.0</v>
+        <v>2227977.0</v>
       </c>
     </row>
     <row r="14">
@@ -530,10 +530,10 @@
         <v>13000.0</v>
       </c>
       <c r="B14" t="n" s="14">
-        <v>161472.0</v>
+        <v>161473.0</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>2436466.0</v>
+        <v>2412560.0</v>
       </c>
     </row>
     <row r="15">
@@ -541,10 +541,10 @@
         <v>14000.0</v>
       </c>
       <c r="B15" t="n" s="15">
-        <v>175369.0</v>
+        <v>175359.0</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>2671051.0</v>
+        <v>2640936.0</v>
       </c>
     </row>
     <row r="16">
@@ -552,10 +552,10 @@
         <v>15000.0</v>
       </c>
       <c r="B16" t="n" s="16">
-        <v>189265.0</v>
+        <v>189303.0</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>2858577.0</v>
+        <v>2851375.0</v>
       </c>
     </row>
     <row r="17">
@@ -563,10 +563,10 @@
         <v>16000.0</v>
       </c>
       <c r="B17" t="n" s="17">
-        <v>203275.0</v>
+        <v>203277.0</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>3046804.0</v>
+        <v>3045478.0</v>
       </c>
     </row>
     <row r="18">
@@ -574,10 +574,10 @@
         <v>17000.0</v>
       </c>
       <c r="B18" t="n" s="18">
-        <v>217519.0</v>
+        <v>217529.0</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>3264744.0</v>
+        <v>3251470.0</v>
       </c>
     </row>
     <row r="19">
@@ -585,10 +585,10 @@
         <v>18000.0</v>
       </c>
       <c r="B19" t="n" s="19">
-        <v>231958.0</v>
+        <v>231952.0</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>3460276.0</v>
+        <v>3446728.0</v>
       </c>
     </row>
     <row r="20">
@@ -596,10 +596,10 @@
         <v>19000.0</v>
       </c>
       <c r="B20" t="n" s="20">
-        <v>246402.0</v>
+        <v>246415.0</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>3644073.0</v>
+        <v>3632381.0</v>
       </c>
     </row>
     <row r="21">
@@ -607,10 +607,10 @@
         <v>20000.0</v>
       </c>
       <c r="B21" t="n" s="21">
-        <v>260908.0</v>
+        <v>260904.0</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>3857788.0</v>
+        <v>3832017.0</v>
       </c>
     </row>
     <row r="22">
@@ -618,10 +618,10 @@
         <v>21000.0</v>
       </c>
       <c r="B22" t="n" s="22">
-        <v>275456.0</v>
+        <v>275447.0</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>4067654.0</v>
+        <v>4046887.0</v>
       </c>
     </row>
     <row r="23">
@@ -629,10 +629,10 @@
         <v>22000.0</v>
       </c>
       <c r="B23" t="n" s="23">
-        <v>290040.0</v>
+        <v>290061.0</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>4277734.0</v>
+        <v>4252811.0</v>
       </c>
     </row>
     <row r="24">
@@ -640,10 +640,10 @@
         <v>23000.0</v>
       </c>
       <c r="B24" t="n" s="24">
-        <v>304664.0</v>
+        <v>304696.0</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>4423179.0</v>
+        <v>4485984.0</v>
       </c>
     </row>
     <row r="25">
@@ -651,10 +651,10 @@
         <v>24000.0</v>
       </c>
       <c r="B25" t="n" s="25">
-        <v>319333.0</v>
+        <v>319347.0</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>4702565.0</v>
+        <v>4652683.0</v>
       </c>
     </row>
     <row r="26">
@@ -662,10 +662,10 @@
         <v>25000.0</v>
       </c>
       <c r="B26" t="n" s="26">
-        <v>334127.0</v>
+        <v>334101.0</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>4913304.0</v>
+        <v>4901825.0</v>
       </c>
     </row>
     <row r="27">
@@ -673,10 +673,10 @@
         <v>26000.0</v>
       </c>
       <c r="B27" t="n" s="27">
-        <v>348969.0</v>
+        <v>348934.0</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>5097964.0</v>
+        <v>5107697.0</v>
       </c>
     </row>
     <row r="28">
@@ -684,10 +684,10 @@
         <v>27000.0</v>
       </c>
       <c r="B28" t="n" s="28">
-        <v>363833.0</v>
+        <v>363786.0</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>5327853.0</v>
+        <v>5296173.0</v>
       </c>
     </row>
     <row r="29">
@@ -695,10 +695,10 @@
         <v>28000.0</v>
       </c>
       <c r="B29" t="n" s="29">
-        <v>378734.0</v>
+        <v>378716.0</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>5535992.0</v>
+        <v>5485991.0</v>
       </c>
     </row>
     <row r="30">
@@ -706,10 +706,10 @@
         <v>29000.0</v>
       </c>
       <c r="B30" t="n" s="30">
-        <v>393630.0</v>
+        <v>393641.0</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>5716145.0</v>
+        <v>5699056.0</v>
       </c>
     </row>
     <row r="31">
@@ -717,10 +717,10 @@
         <v>30000.0</v>
       </c>
       <c r="B31" t="n" s="31">
-        <v>408611.0</v>
+        <v>408590.0</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>5940235.0</v>
+        <v>5923172.0</v>
       </c>
     </row>
     <row r="32">
@@ -728,10 +728,10 @@
         <v>31000.0</v>
       </c>
       <c r="B32" t="n" s="32">
-        <v>423585.0</v>
+        <v>423566.0</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>6185374.0</v>
+        <v>6163897.0</v>
       </c>
     </row>
     <row r="33">
@@ -739,10 +739,10 @@
         <v>32000.0</v>
       </c>
       <c r="B33" t="n" s="33">
-        <v>438549.0</v>
+        <v>438558.0</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>6349080.0</v>
+        <v>6302637.0</v>
       </c>
     </row>
     <row r="34">
@@ -750,10 +750,10 @@
         <v>33000.0</v>
       </c>
       <c r="B34" t="n" s="34">
-        <v>453671.0</v>
+        <v>453648.0</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>6581252.0</v>
+        <v>6560032.0</v>
       </c>
     </row>
     <row r="35">
@@ -761,10 +761,10 @@
         <v>34000.0</v>
       </c>
       <c r="B35" t="n" s="35">
-        <v>469056.0</v>
+        <v>469059.0</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>6786757.0</v>
+        <v>6785842.0</v>
       </c>
     </row>
     <row r="36">
@@ -772,10 +772,10 @@
         <v>35000.0</v>
       </c>
       <c r="B36" t="n" s="36">
-        <v>484477.0</v>
+        <v>484495.0</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>7000840.0</v>
+        <v>7004629.0</v>
       </c>
     </row>
     <row r="37">
@@ -786,7 +786,7 @@
         <v>499912.0</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>7179308.0</v>
+        <v>7189871.0</v>
       </c>
     </row>
     <row r="38">
@@ -794,10 +794,10 @@
         <v>37000.0</v>
       </c>
       <c r="B38" t="n" s="38">
-        <v>515349.0</v>
+        <v>515366.0</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>7359726.0</v>
+        <v>7398985.0</v>
       </c>
     </row>
     <row r="39">
@@ -805,10 +805,10 @@
         <v>38000.0</v>
       </c>
       <c r="B39" t="n" s="39">
-        <v>530817.0</v>
+        <v>530822.0</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>7627950.0</v>
+        <v>7620928.0</v>
       </c>
     </row>
     <row r="40">
@@ -816,10 +816,10 @@
         <v>39000.0</v>
       </c>
       <c r="B40" t="n" s="40">
-        <v>546303.0</v>
+        <v>546276.0</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>7836747.0</v>
+        <v>7813201.0</v>
       </c>
     </row>
     <row r="41">
@@ -827,10 +827,10 @@
         <v>40000.0</v>
       </c>
       <c r="B41" t="n" s="41">
-        <v>561767.0</v>
+        <v>561812.0</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>8028772.0</v>
+        <v>8030560.0</v>
       </c>
     </row>
     <row r="42">
@@ -838,10 +838,10 @@
         <v>41000.0</v>
       </c>
       <c r="B42" t="n" s="42">
-        <v>577303.0</v>
+        <v>577326.0</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>8225347.0</v>
+        <v>8241273.0</v>
       </c>
     </row>
     <row r="43">
@@ -849,10 +849,10 @@
         <v>42000.0</v>
       </c>
       <c r="B43" t="n" s="43">
-        <v>592915.0</v>
+        <v>592895.0</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>8428901.0</v>
+        <v>8456074.0</v>
       </c>
     </row>
     <row r="44">
@@ -860,10 +860,10 @@
         <v>43000.0</v>
       </c>
       <c r="B44" t="n" s="44">
-        <v>608509.0</v>
+        <v>608503.0</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>8662058.0</v>
+        <v>8643386.0</v>
       </c>
     </row>
     <row r="45">
@@ -871,10 +871,10 @@
         <v>44000.0</v>
       </c>
       <c r="B45" t="n" s="45">
-        <v>624110.0</v>
+        <v>624126.0</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>8779038.0</v>
+        <v>8866741.0</v>
       </c>
     </row>
     <row r="46">
@@ -882,10 +882,10 @@
         <v>45000.0</v>
       </c>
       <c r="B46" t="n" s="46">
-        <v>639717.0</v>
+        <v>639748.0</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>8888790.0</v>
+        <v>9064958.0</v>
       </c>
     </row>
     <row r="47">
@@ -893,10 +893,10 @@
         <v>46000.0</v>
       </c>
       <c r="B47" t="n" s="47">
-        <v>655374.0</v>
+        <v>655382.0</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>9120570.0</v>
+        <v>9258206.0</v>
       </c>
     </row>
     <row r="48">
@@ -904,10 +904,10 @@
         <v>47000.0</v>
       </c>
       <c r="B48" t="n" s="48">
-        <v>671028.0</v>
+        <v>671034.0</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>9350681.0</v>
+        <v>9515790.0</v>
       </c>
     </row>
     <row r="49">
@@ -915,10 +915,10 @@
         <v>48000.0</v>
       </c>
       <c r="B49" t="n" s="49">
-        <v>686669.0</v>
+        <v>686714.0</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>9562216.0</v>
+        <v>9735928.0</v>
       </c>
     </row>
     <row r="50">
@@ -926,10 +926,10 @@
         <v>49000.0</v>
       </c>
       <c r="B50" t="n" s="50">
-        <v>702366.0</v>
+        <v>702352.0</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>9733867.0</v>
+        <v>9917706.0</v>
       </c>
     </row>
     <row r="51">
@@ -937,10 +937,10 @@
         <v>50000.0</v>
       </c>
       <c r="B51" t="n" s="51">
-        <v>718183.0</v>
+        <v>718164.0</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>9987405.0</v>
+        <v>1.0177411E7</v>
       </c>
     </row>
     <row r="52">
@@ -948,10 +948,10 @@
         <v>51000.0</v>
       </c>
       <c r="B52" t="n" s="52">
-        <v>734036.0</v>
+        <v>734056.0</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>1.020774E7</v>
+        <v>1.0448817E7</v>
       </c>
     </row>
     <row r="53">
@@ -959,10 +959,10 @@
         <v>52000.0</v>
       </c>
       <c r="B53" t="n" s="53">
-        <v>749901.0</v>
+        <v>749910.0</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>1.0421139E7</v>
+        <v>1.0605287E7</v>
       </c>
     </row>
     <row r="54">
@@ -970,10 +970,10 @@
         <v>53000.0</v>
       </c>
       <c r="B54" t="n" s="54">
-        <v>765793.0</v>
+        <v>765779.0</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>1.0622564E7</v>
+        <v>1.0943312E7</v>
       </c>
     </row>
     <row r="55">
@@ -981,10 +981,10 @@
         <v>54000.0</v>
       </c>
       <c r="B55" t="n" s="55">
-        <v>781642.0</v>
+        <v>781650.0</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>1.08209E7</v>
+        <v>1.1067323E7</v>
       </c>
     </row>
     <row r="56">
@@ -992,10 +992,10 @@
         <v>55000.0</v>
       </c>
       <c r="B56" t="n" s="56">
-        <v>797563.0</v>
+        <v>797509.0</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>1.1092024E7</v>
+        <v>1.1315772E7</v>
       </c>
     </row>
     <row r="57">
@@ -1003,10 +1003,10 @@
         <v>56000.0</v>
       </c>
       <c r="B57" t="n" s="57">
-        <v>813485.0</v>
+        <v>813392.0</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>1.1286119E7</v>
+        <v>1.1643978E7</v>
       </c>
     </row>
     <row r="58">
@@ -1014,10 +1014,10 @@
         <v>57000.0</v>
       </c>
       <c r="B58" t="n" s="58">
-        <v>829336.0</v>
+        <v>829326.0</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>1.1459497E7</v>
+        <v>1.1701045E7</v>
       </c>
     </row>
     <row r="59">
@@ -1025,10 +1025,10 @@
         <v>58000.0</v>
       </c>
       <c r="B59" t="n" s="59">
-        <v>845263.0</v>
+        <v>845284.0</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>1.1728166E7</v>
+        <v>1.1930514E7</v>
       </c>
     </row>
     <row r="60">
@@ -1036,10 +1036,10 @@
         <v>59000.0</v>
       </c>
       <c r="B60" t="n" s="60">
-        <v>861219.0</v>
+        <v>861230.0</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>1.191984E7</v>
+        <v>1.2152928E7</v>
       </c>
     </row>
     <row r="61">
@@ -1047,10 +1047,10 @@
         <v>60000.0</v>
       </c>
       <c r="B61" t="n" s="61">
-        <v>877198.0</v>
+        <v>877162.0</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>1.2158043E7</v>
+        <v>1.2399342E7</v>
       </c>
     </row>
     <row r="62">
@@ -1058,10 +1058,10 @@
         <v>61000.0</v>
       </c>
       <c r="B62" t="n" s="62">
-        <v>893180.0</v>
+        <v>893194.0</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>1.2317249E7</v>
+        <v>1.2534437E7</v>
       </c>
     </row>
     <row r="63">
@@ -1069,10 +1069,10 @@
         <v>62000.0</v>
       </c>
       <c r="B63" t="n" s="63">
-        <v>909116.0</v>
+        <v>909139.0</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>1.2525388E7</v>
+        <v>1.2725179E7</v>
       </c>
     </row>
     <row r="64">
@@ -1083,7 +1083,7 @@
         <v>925113.0</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>1.2794331E7</v>
+        <v>1.3012921E7</v>
       </c>
     </row>
     <row r="65">
@@ -1091,10 +1091,10 @@
         <v>64000.0</v>
       </c>
       <c r="B65" t="n" s="65">
-        <v>941152.0</v>
+        <v>941110.0</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>1.2984585E7</v>
+        <v>1.3190671E7</v>
       </c>
     </row>
     <row r="66">
@@ -1102,10 +1102,10 @@
         <v>65000.0</v>
       </c>
       <c r="B66" t="n" s="66">
-        <v>957107.0</v>
+        <v>957154.0</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>1.3166542E7</v>
+        <v>1.3407405E7</v>
       </c>
     </row>
     <row r="67">
@@ -1113,10 +1113,10 @@
         <v>66000.0</v>
       </c>
       <c r="B67" t="n" s="67">
-        <v>973317.0</v>
+        <v>973291.0</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>1.3412152E7</v>
+        <v>1.3743104E7</v>
       </c>
     </row>
     <row r="68">
@@ -1124,10 +1124,10 @@
         <v>67000.0</v>
       </c>
       <c r="B68" t="n" s="68">
-        <v>989741.0</v>
+        <v>989726.0</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>1.3649089E7</v>
+        <v>1.3890465E7</v>
       </c>
     </row>
     <row r="69">
@@ -1135,10 +1135,10 @@
         <v>68000.0</v>
       </c>
       <c r="B69" t="n" s="69">
-        <v>1006119.0</v>
+        <v>1006126.0</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>1.3870665E7</v>
+        <v>1.417783E7</v>
       </c>
     </row>
     <row r="70">
@@ -1146,10 +1146,10 @@
         <v>69000.0</v>
       </c>
       <c r="B70" t="n" s="70">
-        <v>1022533.0</v>
+        <v>1022567.0</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>1.4094994E7</v>
+        <v>1.4352484E7</v>
       </c>
     </row>
     <row r="71">
@@ -1157,10 +1157,10 @@
         <v>70000.0</v>
       </c>
       <c r="B71" t="n" s="71">
-        <v>1038931.0</v>
+        <v>1038951.0</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>1.4284949E7</v>
+        <v>1.4646803E7</v>
       </c>
     </row>
     <row r="72">
@@ -1168,10 +1168,10 @@
         <v>71000.0</v>
       </c>
       <c r="B72" t="n" s="72">
-        <v>1055397.0</v>
+        <v>1055365.0</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>1.4476478E7</v>
+        <v>1.4904772E7</v>
       </c>
     </row>
     <row r="73">
@@ -1179,10 +1179,10 @@
         <v>72000.0</v>
       </c>
       <c r="B73" t="n" s="73">
-        <v>1071807.0</v>
+        <v>1071799.0</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>1.4773405E7</v>
+        <v>1.5003192E7</v>
       </c>
     </row>
     <row r="74">
@@ -1190,10 +1190,10 @@
         <v>73000.0</v>
       </c>
       <c r="B74" t="n" s="74">
-        <v>1088228.0</v>
+        <v>1088245.0</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>1.5017852E7</v>
+        <v>1.5275658E7</v>
       </c>
     </row>
     <row r="75">
@@ -1201,10 +1201,10 @@
         <v>74000.0</v>
       </c>
       <c r="B75" t="n" s="75">
-        <v>1104713.0</v>
+        <v>1104656.0</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>1.5138125E7</v>
+        <v>1.5479948E7</v>
       </c>
     </row>
     <row r="76">
@@ -1212,10 +1212,10 @@
         <v>75000.0</v>
       </c>
       <c r="B76" t="n" s="76">
-        <v>1121159.0</v>
+        <v>1121192.0</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>1.5429237E7</v>
+        <v>1.5787242E7</v>
       </c>
     </row>
     <row r="77">
@@ -1223,10 +1223,10 @@
         <v>76000.0</v>
       </c>
       <c r="B77" t="n" s="77">
-        <v>1137659.0</v>
+        <v>1137621.0</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>1.5602436E7</v>
+        <v>1.6095845E7</v>
       </c>
     </row>
     <row r="78">
@@ -1234,10 +1234,10 @@
         <v>77000.0</v>
       </c>
       <c r="B78" t="n" s="78">
-        <v>1154067.0</v>
+        <v>1154102.0</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>1.5817315E7</v>
+        <v>1.6215306E7</v>
       </c>
     </row>
     <row r="79">
@@ -1245,10 +1245,10 @@
         <v>78000.0</v>
       </c>
       <c r="B79" t="n" s="79">
-        <v>1170604.0</v>
+        <v>1170591.0</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>1.5936065E7</v>
+        <v>1.6432074E7</v>
       </c>
     </row>
     <row r="80">
@@ -1256,10 +1256,10 @@
         <v>79000.0</v>
       </c>
       <c r="B80" t="n" s="80">
-        <v>1187101.0</v>
+        <v>1187137.0</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>1.6204153E7</v>
+        <v>1.6675289E7</v>
       </c>
     </row>
     <row r="81">
@@ -1267,10 +1267,10 @@
         <v>80000.0</v>
       </c>
       <c r="B81" t="n" s="81">
-        <v>1203605.0</v>
+        <v>1203599.0</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>1.6481357E7</v>
+        <v>1.6871146E7</v>
       </c>
     </row>
     <row r="82">
@@ -1278,10 +1278,10 @@
         <v>81000.0</v>
       </c>
       <c r="B82" t="n" s="82">
-        <v>1220073.0</v>
+        <v>1220079.0</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>1.6656207E7</v>
+        <v>1.7327468E7</v>
       </c>
     </row>
     <row r="83">
@@ -1289,10 +1289,10 @@
         <v>82000.0</v>
       </c>
       <c r="B83" t="n" s="83">
-        <v>1236620.0</v>
+        <v>1236613.0</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>1.6834513E7</v>
+        <v>1.7531664E7</v>
       </c>
     </row>
     <row r="84">
@@ -1300,10 +1300,10 @@
         <v>83000.0</v>
       </c>
       <c r="B84" t="n" s="84">
-        <v>1253193.0</v>
+        <v>1253201.0</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>1.7111025E7</v>
+        <v>1.7694395E7</v>
       </c>
     </row>
     <row r="85">
@@ -1311,10 +1311,10 @@
         <v>84000.0</v>
       </c>
       <c r="B85" t="n" s="85">
-        <v>1269780.0</v>
+        <v>1269784.0</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>1.7383593E7</v>
+        <v>1.7859554E7</v>
       </c>
     </row>
     <row r="86">
@@ -1322,10 +1322,10 @@
         <v>85000.0</v>
       </c>
       <c r="B86" t="n" s="86">
-        <v>1286456.0</v>
+        <v>1286433.0</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>1.7619085E7</v>
+        <v>1.8105668E7</v>
       </c>
     </row>
     <row r="87">
@@ -1333,10 +1333,10 @@
         <v>86000.0</v>
       </c>
       <c r="B87" t="n" s="87">
-        <v>1303004.0</v>
+        <v>1302951.0</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>1.7809305E7</v>
+        <v>1.8417564E7</v>
       </c>
     </row>
     <row r="88">
@@ -1344,10 +1344,10 @@
         <v>87000.0</v>
       </c>
       <c r="B88" t="n" s="88">
-        <v>1319620.0</v>
+        <v>1319600.0</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>1.8029358E7</v>
+        <v>1.8445113E7</v>
       </c>
     </row>
     <row r="89">
@@ -1355,10 +1355,10 @@
         <v>88000.0</v>
       </c>
       <c r="B89" t="n" s="89">
-        <v>1336218.0</v>
+        <v>1336222.0</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>1.8342665E7</v>
+        <v>1.9036181E7</v>
       </c>
     </row>
     <row r="90">
@@ -1366,10 +1366,10 @@
         <v>89000.0</v>
       </c>
       <c r="B90" t="n" s="90">
-        <v>1352864.0</v>
+        <v>1352837.0</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>1.8497433E7</v>
+        <v>1.9271065E7</v>
       </c>
     </row>
     <row r="91">
@@ -1377,10 +1377,10 @@
         <v>90000.0</v>
       </c>
       <c r="B91" t="n" s="91">
-        <v>1369474.0</v>
+        <v>1369482.0</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>1.8703168E7</v>
+        <v>1.944884E7</v>
       </c>
     </row>
     <row r="92">
@@ -1388,10 +1388,10 @@
         <v>91000.0</v>
       </c>
       <c r="B92" t="n" s="92">
-        <v>1386114.0</v>
+        <v>1386118.0</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>1.895905E7</v>
+        <v>1.9872054E7</v>
       </c>
     </row>
     <row r="93">
@@ -1399,10 +1399,10 @@
         <v>92000.0</v>
       </c>
       <c r="B93" t="n" s="93">
-        <v>1402774.0</v>
+        <v>1402790.0</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>1.9169429E7</v>
+        <v>2.0187611E7</v>
       </c>
     </row>
     <row r="94">
@@ -1410,10 +1410,10 @@
         <v>93000.0</v>
       </c>
       <c r="B94" t="n" s="94">
-        <v>1419337.0</v>
+        <v>1419401.0</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>1.9476612E7</v>
+        <v>2.0356902E7</v>
       </c>
     </row>
     <row r="95">
@@ -1421,10 +1421,10 @@
         <v>94000.0</v>
       </c>
       <c r="B95" t="n" s="95">
-        <v>1436097.0</v>
+        <v>1436059.0</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>1.9605011E7</v>
+        <v>1.9921012E7</v>
       </c>
     </row>
     <row r="96">
@@ -1432,10 +1432,10 @@
         <v>95000.0</v>
       </c>
       <c r="B96" t="n" s="96">
-        <v>1452715.0</v>
+        <v>1452731.0</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>1.9624777E7</v>
+        <v>2.0481631E7</v>
       </c>
     </row>
     <row r="97">
@@ -1443,10 +1443,10 @@
         <v>96000.0</v>
       </c>
       <c r="B97" t="n" s="97">
-        <v>1469407.0</v>
+        <v>1469402.0</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>1.9837115E7</v>
+        <v>2.058774E7</v>
       </c>
     </row>
     <row r="98">
@@ -1454,10 +1454,10 @@
         <v>97000.0</v>
       </c>
       <c r="B98" t="n" s="98">
-        <v>1486085.0</v>
+        <v>1486051.0</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>2.0394364E7</v>
+        <v>2.1218365E7</v>
       </c>
     </row>
     <row r="99">
@@ -1465,10 +1465,10 @@
         <v>98000.0</v>
       </c>
       <c r="B99" t="n" s="99">
-        <v>1502727.0</v>
+        <v>1502684.0</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>2.0586474E7</v>
+        <v>2.115976E7</v>
       </c>
     </row>
     <row r="100">
@@ -1476,10 +1476,10 @@
         <v>99000.0</v>
       </c>
       <c r="B100" t="n" s="100">
-        <v>1519480.0</v>
+        <v>1519561.0</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>2.0806416E7</v>
+        <v>2.1544254E7</v>
       </c>
     </row>
     <row r="101">
@@ -1487,10 +1487,10 @@
         <v>100000.0</v>
       </c>
       <c r="B101" t="n" s="101">
-        <v>1536378.0</v>
+        <v>1536343.0</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>2.1062734E7</v>
+        <v>2.1765077E7</v>
       </c>
     </row>
   </sheetData>
